--- a/ILNUX1/ILNUX1 commando lijst.xlsx
+++ b/ILNUX1/ILNUX1 commando lijst.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>Commando</t>
   </si>
@@ -117,6 +117,57 @@
   </si>
   <si>
     <t>Dedupliceer regels uit input</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>Bekijk de eerste N regels uit het bestand</t>
+  </si>
+  <si>
+    <t>Bekijk de laatste N regels uit het bestand</t>
+  </si>
+  <si>
+    <t>tail</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>Blader door een bestand, een scherm tegelijk</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>Extract a portion or range of tekst</t>
+  </si>
+  <si>
+    <t>wc</t>
+  </si>
+  <si>
+    <t>Word count</t>
+  </si>
+  <si>
+    <t>Telt het aantal woorden of regels in een bestand</t>
+  </si>
+  <si>
+    <t>uname</t>
+  </si>
+  <si>
+    <t>System info</t>
+  </si>
+  <si>
+    <t>Geeft informatie over de kernel</t>
+  </si>
+  <si>
+    <t>ps</t>
+  </si>
+  <si>
+    <t>Process list</t>
+  </si>
+  <si>
+    <t>Procesbeheer</t>
   </si>
 </sst>
 </file>
@@ -440,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -587,6 +638,86 @@
         <v>30</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D2">
     <sortCondition ref="C1"/>
